--- a/biology/Zoologie/Chalcides_striatus/Chalcides_striatus.xlsx
+++ b/biology/Zoologie/Chalcides_striatus/Chalcides_striatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcides striatus, ou Scinque à trois doigts ou Seps strié, est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcides striatus, ou Scinque à trois doigts ou Seps strié, est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans la France méditerranéenne ;
 à Gibraltar ;
 en Espagne ;
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalcides striatus peut atteindre 30 cm de long.
 Le corps est très allongé, et a une allure d'orvet. Les écailles sont lisses. Le corps est bronzé avec une dizaine de lignes longitudinales plus sombres. La face ventrale est blanc grisâtre.
@@ -582,7 +598,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalcides striatus pourrait être une sous-espèce du taxon Chalcides chalcides. Celui-ci pouvant être subdivisé en Chalcides chalcides chalcides (Italie, Sicile et Elbe), Chalcides chalcides striatus (Sud de la France et péninsule Ibérique) et Chalcides chalcides vittatus (en Sardaigne).
 </t>
@@ -613,9 +631,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce, striatus, vient du latin stria, « strie », en référence aux lignes sombres longitudinales que présentent généralement ses représentants[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce, striatus, vient du latin stria, « strie », en référence aux lignes sombres longitudinales que présentent généralement ses représentants.
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cuvier, 1829 : Le Règne Animal distribué, d'après son organisation, pour servir de base à l'Histoire Naturelle des Animaux et d'introduction à l'Anatomie Comparé. Nouvelle Édition. Les Reptiles. Déterville, Paris, vol. 2, p. 1-406 (texte intégral)</t>
         </is>
